--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -450,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1924,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1992,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2033,7 +2033,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2283,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G4">
         <v>2</v>

--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -450,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1924,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1992,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2033,7 +2033,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2165,16 +2165,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2283,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2306,16 +2306,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>2</v>

--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -1601,13 +1601,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>152</v>

--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -450,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2033,7 +2033,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2165,16 +2165,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2283,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2306,16 +2306,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>

--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="13">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -1383,6 +1385,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>247</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>247</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
@@ -1851,13 +2135,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>118</v>
@@ -1883,13 +2167,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>110</v>
@@ -1915,13 +2199,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>133</v>

--- a/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/Email/2wise/0.95_worst_case.xlsx
@@ -443,16 +443,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -475,16 +475,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -507,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -584,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -616,16 +616,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -757,16 +757,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -789,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -866,16 +866,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -898,16 +898,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -930,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -939,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1007,16 +1007,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1148,16 +1148,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1180,16 +1180,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1289,16 +1289,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1321,16 +1321,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1353,16 +1353,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1430,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -1462,16 +1462,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -1494,16 +1494,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -1571,16 +1571,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1603,16 +1603,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -1635,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1712,16 +1712,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1744,16 +1744,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1776,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1853,16 +1853,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1885,16 +1885,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1994,16 +1994,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -2026,16 +2026,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2058,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2067,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2167,16 +2167,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2199,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2308,16 +2308,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2340,16 +2340,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -2417,16 +2417,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2449,16 +2449,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2481,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2558,16 +2558,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2590,16 +2590,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2622,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2699,16 +2699,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2731,16 +2731,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2763,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="G4">
         <v>2</v>
